--- a/doc/tasks/HighLevelTask.xlsx
+++ b/doc/tasks/HighLevelTask.xlsx
@@ -89,8 +89,7 @@
   </si>
   <si>
     <t>Init DDR bootable
-Boot kernel
-</t>
+Boot kernel</t>
   </si>
   <si>
     <t>NA</t>
@@ -128,8 +127,7 @@
   <si>
     <t>+ Send/receive sms
 + Phone call
-+ Work with z-wave daemon (UNIX socket)
-</t>
++ Work with z-wave daemon (UNIX socket)</t>
   </si>
   <si>
     <t>Z-wave server</t>
@@ -182,6 +180,7 @@
   <fonts count="6">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -202,12 +201,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -355,12 +356,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="127.905882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="128.549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,19 +390,19 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
+      <selection activeCell="D16" activeCellId="0" pane="topLeft" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.643137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.8627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.4470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -424,7 +425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -444,7 +445,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
@@ -476,7 +477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>22</v>
       </c>
@@ -487,7 +488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>25</v>
       </c>
@@ -495,7 +496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="B9" s="0" t="s">
         <v>26</v>
       </c>
@@ -503,7 +504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
@@ -511,7 +512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>28</v>
       </c>
@@ -519,7 +520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
@@ -527,7 +528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="38.8" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>33</v>
       </c>
@@ -552,13 +553,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>35</v>
       </c>
@@ -572,7 +573,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -592,13 +593,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -621,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>37</v>
       </c>
@@ -629,12 +630,12 @@
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>40</v>
       </c>
@@ -642,7 +643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>42</v>
       </c>
@@ -650,7 +651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>44</v>
       </c>
@@ -658,7 +659,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -673,17 +674,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
